--- a/data/pca/factorExposure/factorExposure_2015-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02003131966810819</v>
+        <v>0.01200685965474757</v>
       </c>
       <c r="C2">
-        <v>0.02119505907902056</v>
+        <v>-0.05256503122420338</v>
       </c>
       <c r="D2">
-        <v>-0.1053782805282955</v>
+        <v>-0.1254495744782458</v>
       </c>
       <c r="E2">
-        <v>-0.01393752679202227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02453806510854656</v>
+      </c>
+      <c r="F2">
+        <v>0.03336609541098725</v>
+      </c>
+      <c r="G2">
+        <v>-0.1191400988840607</v>
+      </c>
+      <c r="H2">
+        <v>-0.08867324514305679</v>
+      </c>
+      <c r="I2">
+        <v>-0.09249167407657699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04320977472635596</v>
+        <v>0.01820169325222463</v>
       </c>
       <c r="C4">
-        <v>0.07138406362189371</v>
+        <v>-0.1069118927577929</v>
       </c>
       <c r="D4">
-        <v>-0.1248472371051457</v>
+        <v>-0.1323663992577605</v>
       </c>
       <c r="E4">
-        <v>-0.09177636946614563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01317017693694793</v>
+      </c>
+      <c r="F4">
+        <v>0.0925267253272514</v>
+      </c>
+      <c r="G4">
+        <v>-0.002155700795115173</v>
+      </c>
+      <c r="H4">
+        <v>-0.05030137833430832</v>
+      </c>
+      <c r="I4">
+        <v>0.07604932540670534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02119233485056109</v>
+        <v>0.02828439287096184</v>
       </c>
       <c r="C6">
-        <v>0.01079492518282659</v>
+        <v>-0.03535241897746633</v>
       </c>
       <c r="D6">
-        <v>-0.1379516330255171</v>
+        <v>-0.1225639486022165</v>
       </c>
       <c r="E6">
-        <v>-0.04507867010071129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06340545604344093</v>
+      </c>
+      <c r="F6">
+        <v>0.04602922142603183</v>
+      </c>
+      <c r="G6">
+        <v>0.01205346760922898</v>
+      </c>
+      <c r="H6">
+        <v>-0.04194221206867729</v>
+      </c>
+      <c r="I6">
+        <v>0.02610757156506319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002195193721220845</v>
+        <v>0.00837367004052661</v>
       </c>
       <c r="C7">
-        <v>0.02302615781521161</v>
+        <v>-0.03858380054898902</v>
       </c>
       <c r="D7">
-        <v>-0.1103095007882566</v>
+        <v>-0.09563023631482162</v>
       </c>
       <c r="E7">
-        <v>-0.009781700503695586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05585018631973711</v>
+      </c>
+      <c r="F7">
+        <v>0.009733467919908895</v>
+      </c>
+      <c r="G7">
+        <v>0.01712473597066412</v>
+      </c>
+      <c r="H7">
+        <v>-0.0759359453037711</v>
+      </c>
+      <c r="I7">
+        <v>0.00999899421762678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002603765113366754</v>
+        <v>-0.008393236439075091</v>
       </c>
       <c r="C8">
-        <v>0.02624538262683946</v>
+        <v>-0.03630152179049553</v>
       </c>
       <c r="D8">
-        <v>-0.07817701584753554</v>
+        <v>-0.07296437481338722</v>
       </c>
       <c r="E8">
-        <v>-0.02516459129523914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03944940007581468</v>
+      </c>
+      <c r="F8">
+        <v>0.04930640059750461</v>
+      </c>
+      <c r="G8">
+        <v>-0.06066523093846899</v>
+      </c>
+      <c r="H8">
+        <v>-0.01436864285113347</v>
+      </c>
+      <c r="I8">
+        <v>-0.008305415834046559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03524936144101263</v>
+        <v>0.01317048164792218</v>
       </c>
       <c r="C9">
-        <v>0.0604498694822663</v>
+        <v>-0.08797769772269746</v>
       </c>
       <c r="D9">
-        <v>-0.1263778563463663</v>
+        <v>-0.1136098860750062</v>
       </c>
       <c r="E9">
-        <v>-0.07578870895831639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0141095827056257</v>
+      </c>
+      <c r="F9">
+        <v>0.06167575308607021</v>
+      </c>
+      <c r="G9">
+        <v>0.01889719651182286</v>
+      </c>
+      <c r="H9">
+        <v>-0.05871624799127883</v>
+      </c>
+      <c r="I9">
+        <v>0.04357981919796814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.177029760373408</v>
+        <v>0.2417439287653107</v>
       </c>
       <c r="C10">
-        <v>-0.1669543171783285</v>
+        <v>0.0885853711907354</v>
       </c>
       <c r="D10">
-        <v>0.002808020392486521</v>
+        <v>0.00448329629428622</v>
       </c>
       <c r="E10">
-        <v>-0.04370493840915797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01068151575580953</v>
+      </c>
+      <c r="F10">
+        <v>0.04251430238431606</v>
+      </c>
+      <c r="G10">
+        <v>0.0001199017283094465</v>
+      </c>
+      <c r="H10">
+        <v>0.0335719339515075</v>
+      </c>
+      <c r="I10">
+        <v>-0.06617463471952451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01926023180832951</v>
+        <v>0.00958130084617087</v>
       </c>
       <c r="C11">
-        <v>0.04187306612378377</v>
+        <v>-0.05768340366993396</v>
       </c>
       <c r="D11">
-        <v>-0.0456657367461953</v>
+        <v>-0.04068898154622948</v>
       </c>
       <c r="E11">
-        <v>0.0164422358993421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02043707497638483</v>
+      </c>
+      <c r="F11">
+        <v>-0.01466424907132126</v>
+      </c>
+      <c r="G11">
+        <v>0.01441698868488274</v>
+      </c>
+      <c r="H11">
+        <v>-0.04810352119038036</v>
+      </c>
+      <c r="I11">
+        <v>0.06527963216467372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01908875156315144</v>
+        <v>0.009646332380246947</v>
       </c>
       <c r="C12">
-        <v>0.04139183303939355</v>
+        <v>-0.05073931026283821</v>
       </c>
       <c r="D12">
-        <v>-0.06055969807095959</v>
+        <v>-0.04553379470394617</v>
       </c>
       <c r="E12">
-        <v>0.004466740527721846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01589563978644184</v>
+      </c>
+      <c r="F12">
+        <v>-0.01679575044320982</v>
+      </c>
+      <c r="G12">
+        <v>0.03322546917857776</v>
+      </c>
+      <c r="H12">
+        <v>-0.06481470433341853</v>
+      </c>
+      <c r="I12">
+        <v>0.03805224002323663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003863116351524252</v>
+        <v>-0.002275017190752</v>
       </c>
       <c r="C13">
-        <v>0.02246042923338094</v>
+        <v>-0.04843777726618192</v>
       </c>
       <c r="D13">
-        <v>-0.1369251291888825</v>
+        <v>-0.1456813142497459</v>
       </c>
       <c r="E13">
-        <v>-0.04174623029559685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04235868577822487</v>
+      </c>
+      <c r="F13">
+        <v>0.03425979688902598</v>
+      </c>
+      <c r="G13">
+        <v>-0.01322155175246061</v>
+      </c>
+      <c r="H13">
+        <v>-0.07372066439522673</v>
+      </c>
+      <c r="I13">
+        <v>-0.09048403341213612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005680907975971326</v>
+        <v>0.001517683691095773</v>
       </c>
       <c r="C14">
-        <v>0.01596402599038614</v>
+        <v>-0.03163046829930471</v>
       </c>
       <c r="D14">
-        <v>-0.09333627492169182</v>
+        <v>-0.09867935236485934</v>
       </c>
       <c r="E14">
-        <v>-0.0163663738612004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05227614451268871</v>
+      </c>
+      <c r="F14">
+        <v>0.03566865006940741</v>
+      </c>
+      <c r="G14">
+        <v>-0.0004120102982020762</v>
+      </c>
+      <c r="H14">
+        <v>-0.13262250279539</v>
+      </c>
+      <c r="I14">
+        <v>0.0001154466443801778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003115016232991439</v>
+        <v>-0.002452053555576663</v>
       </c>
       <c r="C15">
-        <v>0.01072923229056792</v>
+        <v>-0.02772508004308427</v>
       </c>
       <c r="D15">
-        <v>-0.03307873926136207</v>
+        <v>-0.06018878525744685</v>
       </c>
       <c r="E15">
-        <v>0.001634038286699541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01279772517970668</v>
+      </c>
+      <c r="F15">
+        <v>0.007054553578519789</v>
+      </c>
+      <c r="G15">
+        <v>-0.01254036442576673</v>
+      </c>
+      <c r="H15">
+        <v>-0.04129156498103328</v>
+      </c>
+      <c r="I15">
+        <v>0.02457217152275777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01813561786595124</v>
+        <v>0.009029409916472296</v>
       </c>
       <c r="C16">
-        <v>0.03726920221445125</v>
+        <v>-0.05067609682451271</v>
       </c>
       <c r="D16">
-        <v>-0.05364883784436943</v>
+        <v>-0.04373304607481286</v>
       </c>
       <c r="E16">
-        <v>0.006188954827395789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02276171372809355</v>
+      </c>
+      <c r="F16">
+        <v>-0.008682732714614394</v>
+      </c>
+      <c r="G16">
+        <v>0.02457290271127666</v>
+      </c>
+      <c r="H16">
+        <v>-0.0450632819619672</v>
+      </c>
+      <c r="I16">
+        <v>0.06021469269558055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.003186713786594395</v>
+        <v>-0.0003852279581932591</v>
       </c>
       <c r="C19">
-        <v>0.01859467003035713</v>
+        <v>-0.0174984330324995</v>
       </c>
       <c r="D19">
-        <v>-0.09873465684650544</v>
+        <v>-0.06192639876825047</v>
       </c>
       <c r="E19">
-        <v>-0.04932995222751881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01089578826226793</v>
+      </c>
+      <c r="F19">
+        <v>0.01641234904568983</v>
+      </c>
+      <c r="G19">
+        <v>-0.01072151668648086</v>
+      </c>
+      <c r="H19">
+        <v>-0.05657387242255342</v>
+      </c>
+      <c r="I19">
+        <v>-0.03773400933784783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002657858157923075</v>
+        <v>0.004444724511058918</v>
       </c>
       <c r="C20">
-        <v>0.02504593744673406</v>
+        <v>-0.04262911264423119</v>
       </c>
       <c r="D20">
-        <v>-0.08152654698854636</v>
+        <v>-0.08867986386054105</v>
       </c>
       <c r="E20">
-        <v>-0.0355433924836739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02464171890295591</v>
+      </c>
+      <c r="F20">
+        <v>0.02702828510596392</v>
+      </c>
+      <c r="G20">
+        <v>0.01433894599782968</v>
+      </c>
+      <c r="H20">
+        <v>-0.05562343573597303</v>
+      </c>
+      <c r="I20">
+        <v>0.04460446074796334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00575798843652092</v>
+        <v>0.004275481025618099</v>
       </c>
       <c r="C21">
-        <v>0.02630473046205779</v>
+        <v>-0.0454353382896508</v>
       </c>
       <c r="D21">
-        <v>-0.1554802723377219</v>
+        <v>-0.1280554225633238</v>
       </c>
       <c r="E21">
-        <v>-0.08716688476145514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03233420071957114</v>
+      </c>
+      <c r="F21">
+        <v>0.09802986813683853</v>
+      </c>
+      <c r="G21">
+        <v>-0.009802492733053669</v>
+      </c>
+      <c r="H21">
+        <v>-0.1942630833110239</v>
+      </c>
+      <c r="I21">
+        <v>-0.1398725639477202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0003984063901456478</v>
+        <v>-0.01320304664397013</v>
       </c>
       <c r="C22">
-        <v>0.06361137181942414</v>
+        <v>-0.08924907788993644</v>
       </c>
       <c r="D22">
-        <v>-0.2566979464275046</v>
+        <v>-0.2572975233325518</v>
       </c>
       <c r="E22">
-        <v>0.003412157289441308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06612630627990544</v>
+      </c>
+      <c r="F22">
+        <v>0.005628364190512362</v>
+      </c>
+      <c r="G22">
+        <v>-0.4086633417384817</v>
+      </c>
+      <c r="H22">
+        <v>0.3737517236133908</v>
+      </c>
+      <c r="I22">
+        <v>0.05561049532318731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0001077859927016516</v>
+        <v>-0.009966790648657858</v>
       </c>
       <c r="C23">
-        <v>0.06405139023676129</v>
+        <v>-0.0909453973247582</v>
       </c>
       <c r="D23">
-        <v>-0.256015101639718</v>
+        <v>-0.2599218791743207</v>
       </c>
       <c r="E23">
-        <v>0.003272785695746882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06135798615895014</v>
+      </c>
+      <c r="F23">
+        <v>0.008871723308420084</v>
+      </c>
+      <c r="G23">
+        <v>-0.3960892106658817</v>
+      </c>
+      <c r="H23">
+        <v>0.3593145864653747</v>
+      </c>
+      <c r="I23">
+        <v>0.0465120839073439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02349895400612222</v>
+        <v>0.00948538833907556</v>
       </c>
       <c r="C24">
-        <v>0.05728252185940561</v>
+        <v>-0.06724356563839501</v>
       </c>
       <c r="D24">
-        <v>-0.06265209762094492</v>
+        <v>-0.04651598585611182</v>
       </c>
       <c r="E24">
-        <v>0.002995277705489371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02951759154910056</v>
+      </c>
+      <c r="F24">
+        <v>-0.004586281571879181</v>
+      </c>
+      <c r="G24">
+        <v>0.0144154994261976</v>
+      </c>
+      <c r="H24">
+        <v>-0.0714398496502693</v>
+      </c>
+      <c r="I24">
+        <v>0.05574945575056724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02451815309262336</v>
+        <v>0.01364190639934983</v>
       </c>
       <c r="C25">
-        <v>0.04876250620037968</v>
+        <v>-0.06151428002821707</v>
       </c>
       <c r="D25">
-        <v>-0.05893357172840051</v>
+        <v>-0.04883868907248503</v>
       </c>
       <c r="E25">
-        <v>-0.003673467617647285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01492253203219146</v>
+      </c>
+      <c r="F25">
+        <v>-0.006196291336631742</v>
+      </c>
+      <c r="G25">
+        <v>0.01593014151766791</v>
+      </c>
+      <c r="H25">
+        <v>-0.03588156376434848</v>
+      </c>
+      <c r="I25">
+        <v>0.03861539932730723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.006424355827447981</v>
+        <v>0.01450931078624701</v>
       </c>
       <c r="C26">
-        <v>0.01457711308022203</v>
+        <v>-0.02740784286338992</v>
       </c>
       <c r="D26">
-        <v>-0.08602450354824669</v>
+        <v>-0.06856570714805947</v>
       </c>
       <c r="E26">
-        <v>-0.02462492393350425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04488473602028798</v>
+      </c>
+      <c r="F26">
+        <v>0.04363339430600868</v>
+      </c>
+      <c r="G26">
+        <v>0.01293059301177897</v>
+      </c>
+      <c r="H26">
+        <v>-0.09855865071813164</v>
+      </c>
+      <c r="I26">
+        <v>-0.02872201118543532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2622464402540373</v>
+        <v>0.3209258648355132</v>
       </c>
       <c r="C28">
-        <v>-0.1947476844073371</v>
+        <v>0.08870080061411491</v>
       </c>
       <c r="D28">
-        <v>-0.01407996254547779</v>
+        <v>0.01763774225261652</v>
       </c>
       <c r="E28">
-        <v>-0.05720027859617317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05041031935244544</v>
+      </c>
+      <c r="F28">
+        <v>0.04527500679141388</v>
+      </c>
+      <c r="G28">
+        <v>-0.05075976035967283</v>
+      </c>
+      <c r="H28">
+        <v>0.004491320469680891</v>
+      </c>
+      <c r="I28">
+        <v>-0.09444225947801352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002113288074831477</v>
+        <v>0.0006114933415428074</v>
       </c>
       <c r="C29">
-        <v>0.02015007132772735</v>
+        <v>-0.03666832354562836</v>
       </c>
       <c r="D29">
-        <v>-0.09478971458446148</v>
+        <v>-0.1024799468279461</v>
       </c>
       <c r="E29">
-        <v>-0.02305061960654666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05924758765361143</v>
+      </c>
+      <c r="F29">
+        <v>0.04042404989314891</v>
+      </c>
+      <c r="G29">
+        <v>0.01232031631079282</v>
+      </c>
+      <c r="H29">
+        <v>-0.1368974597436139</v>
+      </c>
+      <c r="I29">
+        <v>0.01242188415425997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02299417459899446</v>
+        <v>0.01400512396863351</v>
       </c>
       <c r="C30">
-        <v>0.05924009940595189</v>
+        <v>-0.08816139884089916</v>
       </c>
       <c r="D30">
-        <v>-0.1651608513805501</v>
+        <v>-0.1452360323871112</v>
       </c>
       <c r="E30">
-        <v>-0.03281200292749656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05678455368165285</v>
+      </c>
+      <c r="F30">
+        <v>0.02802321582544398</v>
+      </c>
+      <c r="G30">
+        <v>-0.01907522298361383</v>
+      </c>
+      <c r="H30">
+        <v>-0.05228501567944073</v>
+      </c>
+      <c r="I30">
+        <v>0.08001154516704614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03640186287843667</v>
+        <v>0.00783292388678029</v>
       </c>
       <c r="C31">
-        <v>0.08486883787161643</v>
+        <v>-0.09470725437121465</v>
       </c>
       <c r="D31">
-        <v>-0.06775440546255374</v>
+        <v>-0.03901702943756822</v>
       </c>
       <c r="E31">
-        <v>-0.01693855341126786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02023762860289379</v>
+      </c>
+      <c r="F31">
+        <v>0.01401708904105042</v>
+      </c>
+      <c r="G31">
+        <v>0.004966435861138479</v>
+      </c>
+      <c r="H31">
+        <v>-0.04731806794579612</v>
+      </c>
+      <c r="I31">
+        <v>-0.02650469275001358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01703341642220364</v>
+        <v>0.009104966185612011</v>
       </c>
       <c r="C32">
-        <v>0.03218670163131439</v>
+        <v>-0.04767970791467363</v>
       </c>
       <c r="D32">
-        <v>-0.09116110791655706</v>
+        <v>-0.1037198107291058</v>
       </c>
       <c r="E32">
-        <v>-0.07228077622893166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.001650287635593037</v>
+      </c>
+      <c r="F32">
+        <v>0.0553871324977127</v>
+      </c>
+      <c r="G32">
+        <v>-0.009626509104958674</v>
+      </c>
+      <c r="H32">
+        <v>-0.05816047684009574</v>
+      </c>
+      <c r="I32">
+        <v>-0.09068471949503666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.009266584314338994</v>
+        <v>0.005848047199381813</v>
       </c>
       <c r="C33">
-        <v>0.0405123202814414</v>
+        <v>-0.0615645669586228</v>
       </c>
       <c r="D33">
-        <v>-0.1374839705696686</v>
+        <v>-0.1215054039920778</v>
       </c>
       <c r="E33">
-        <v>-0.04795383633819983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03018960323107985</v>
+      </c>
+      <c r="F33">
+        <v>0.02664676592043177</v>
+      </c>
+      <c r="G33">
+        <v>0.008760652477618482</v>
+      </c>
+      <c r="H33">
+        <v>-0.06465068548760354</v>
+      </c>
+      <c r="I33">
+        <v>0.009270853250124019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02079945164506571</v>
+        <v>0.007100005882395159</v>
       </c>
       <c r="C34">
-        <v>0.05885075490848073</v>
+        <v>-0.06203583468429941</v>
       </c>
       <c r="D34">
-        <v>-0.05365038700972949</v>
+        <v>-0.02729124875040082</v>
       </c>
       <c r="E34">
-        <v>0.04496899428928786</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02882717920943983</v>
+      </c>
+      <c r="F34">
+        <v>-0.039648987116672</v>
+      </c>
+      <c r="G34">
+        <v>0.01744525514267384</v>
+      </c>
+      <c r="H34">
+        <v>-0.05250141307088939</v>
+      </c>
+      <c r="I34">
+        <v>0.03077646605542165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002334983981153843</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01117730849167397</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03324680101262666</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004832117610729545</v>
+      </c>
+      <c r="F35">
+        <v>0.01774157713136267</v>
+      </c>
+      <c r="G35">
+        <v>0.007927912676188873</v>
+      </c>
+      <c r="H35">
+        <v>-0.05281088102370003</v>
+      </c>
+      <c r="I35">
+        <v>0.02614306585323079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006775679309205455</v>
+        <v>0.01095752010052138</v>
       </c>
       <c r="C36">
-        <v>0.005988055531441605</v>
+        <v>-0.0226640059167145</v>
       </c>
       <c r="D36">
-        <v>-0.08525982356746016</v>
+        <v>-0.07572344038848253</v>
       </c>
       <c r="E36">
-        <v>-0.04935466523612335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02913445945239145</v>
+      </c>
+      <c r="F36">
+        <v>0.04997575899891998</v>
+      </c>
+      <c r="G36">
+        <v>0.003576633106057598</v>
+      </c>
+      <c r="H36">
+        <v>-0.06645452420754987</v>
+      </c>
+      <c r="I36">
+        <v>-0.01602590699709151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005934875629267786</v>
+        <v>0.01185721047397768</v>
       </c>
       <c r="C38">
-        <v>0.006495515335418009</v>
+        <v>-0.02416783221706303</v>
       </c>
       <c r="D38">
-        <v>-0.09021168323414676</v>
+        <v>-0.08743326598355514</v>
       </c>
       <c r="E38">
-        <v>-0.01397258313209841</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.007037738591761678</v>
+      </c>
+      <c r="F38">
+        <v>0.001191596919462475</v>
+      </c>
+      <c r="G38">
+        <v>-0.01617341907741228</v>
+      </c>
+      <c r="H38">
+        <v>-0.06835680946027216</v>
+      </c>
+      <c r="I38">
+        <v>0.002865988017640631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01530525611523847</v>
+        <v>0.003064855355696333</v>
       </c>
       <c r="C39">
-        <v>0.05727748297992737</v>
+        <v>-0.07740110589564937</v>
       </c>
       <c r="D39">
-        <v>-0.1131783142618031</v>
+        <v>-0.09145116474132019</v>
       </c>
       <c r="E39">
-        <v>0.008211893831878874</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05392542986940791</v>
+      </c>
+      <c r="F39">
+        <v>-0.004682430471055086</v>
+      </c>
+      <c r="G39">
+        <v>0.02212411179202406</v>
+      </c>
+      <c r="H39">
+        <v>-0.1017881186597845</v>
+      </c>
+      <c r="I39">
+        <v>0.07921967897027446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01560461287440094</v>
+        <v>0.01353294287332472</v>
       </c>
       <c r="C40">
-        <v>0.022838532023322</v>
+        <v>-0.03741436737844629</v>
       </c>
       <c r="D40">
-        <v>-0.113675042905412</v>
+        <v>-0.09398728961860735</v>
       </c>
       <c r="E40">
-        <v>0.00343071994406251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04219667217384695</v>
+      </c>
+      <c r="F40">
+        <v>-0.01228376471357925</v>
+      </c>
+      <c r="G40">
+        <v>-0.06023930589666243</v>
+      </c>
+      <c r="H40">
+        <v>-0.1057571626555783</v>
+      </c>
+      <c r="I40">
+        <v>-0.05982858598535448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009596937083561878</v>
+        <v>0.01555071711816669</v>
       </c>
       <c r="C41">
-        <v>0.004230647961269358</v>
+        <v>-0.01962940671922939</v>
       </c>
       <c r="D41">
-        <v>-0.04240372531166872</v>
+        <v>-0.04730348624007934</v>
       </c>
       <c r="E41">
-        <v>-0.03347922192510872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.006246674301276463</v>
+      </c>
+      <c r="F41">
+        <v>0.02471690190437895</v>
+      </c>
+      <c r="G41">
+        <v>0.0001542330136775032</v>
+      </c>
+      <c r="H41">
+        <v>-0.04611368250295975</v>
+      </c>
+      <c r="I41">
+        <v>-0.006277568576395141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001489989232291988</v>
+        <v>0.008164073576717579</v>
       </c>
       <c r="C43">
-        <v>0.004552137614098317</v>
+        <v>-0.01636643417379051</v>
       </c>
       <c r="D43">
-        <v>-0.05478925056176542</v>
+        <v>-0.05318159710710582</v>
       </c>
       <c r="E43">
-        <v>-0.02504641798444278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01048101387238049</v>
+      </c>
+      <c r="F43">
+        <v>0.0209956418606693</v>
+      </c>
+      <c r="G43">
+        <v>-0.001936043923925552</v>
+      </c>
+      <c r="H43">
+        <v>-0.05620860036768859</v>
+      </c>
+      <c r="I43">
+        <v>0.01727351060035573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01742553230278684</v>
+        <v>0.01211345263947722</v>
       </c>
       <c r="C44">
-        <v>0.02504144054241499</v>
+        <v>-0.04989776561859169</v>
       </c>
       <c r="D44">
-        <v>-0.09208094026333014</v>
+        <v>-0.1017328882619562</v>
       </c>
       <c r="E44">
-        <v>-0.04905596889697889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03738572972051619</v>
+      </c>
+      <c r="F44">
+        <v>0.03606269759321951</v>
+      </c>
+      <c r="G44">
+        <v>-0.029123223493322</v>
+      </c>
+      <c r="H44">
+        <v>-0.05283579335716448</v>
+      </c>
+      <c r="I44">
+        <v>0.04663383391964868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004943412030395541</v>
+        <v>-0.0005839358830577146</v>
       </c>
       <c r="C46">
-        <v>0.02939480134429399</v>
+        <v>-0.04192812884640604</v>
       </c>
       <c r="D46">
-        <v>-0.08514174871017209</v>
+        <v>-0.07171045281559134</v>
       </c>
       <c r="E46">
-        <v>-0.02097842552291873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04385262198534282</v>
+      </c>
+      <c r="F46">
+        <v>0.0327549522380025</v>
+      </c>
+      <c r="G46">
+        <v>-0.001345410783852884</v>
+      </c>
+      <c r="H46">
+        <v>-0.1293119024663971</v>
+      </c>
+      <c r="I46">
+        <v>0.02406724395010449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07716542787153637</v>
+        <v>0.03145161307847146</v>
       </c>
       <c r="C47">
-        <v>0.1071386490599149</v>
+        <v>-0.1261797836218014</v>
       </c>
       <c r="D47">
-        <v>-0.05891200062934127</v>
+        <v>-0.02335508045001563</v>
       </c>
       <c r="E47">
-        <v>-0.0350429246303304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006692578709577522</v>
+      </c>
+      <c r="F47">
+        <v>-0.003603168264992608</v>
+      </c>
+      <c r="G47">
+        <v>0.05052284211923978</v>
+      </c>
+      <c r="H47">
+        <v>-0.05530985268257128</v>
+      </c>
+      <c r="I47">
+        <v>-0.06684595124758949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008347047193782414</v>
+        <v>0.01266136184726117</v>
       </c>
       <c r="C48">
-        <v>0.01543437380267771</v>
+        <v>-0.03302208843713978</v>
       </c>
       <c r="D48">
-        <v>-0.09090898614260057</v>
+        <v>-0.08188256577161183</v>
       </c>
       <c r="E48">
-        <v>-0.06115126960709108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02330952598469406</v>
+      </c>
+      <c r="F48">
+        <v>0.05927110626923573</v>
+      </c>
+      <c r="G48">
+        <v>0.004475147685051919</v>
+      </c>
+      <c r="H48">
+        <v>-0.1086186447661366</v>
+      </c>
+      <c r="I48">
+        <v>0.003193009284049207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0339780929430227</v>
+        <v>0.01210569926815309</v>
       </c>
       <c r="C50">
-        <v>0.05824109144398356</v>
+        <v>-0.07608453377082189</v>
       </c>
       <c r="D50">
-        <v>-0.06367452145647554</v>
+        <v>-0.04891823374269474</v>
       </c>
       <c r="E50">
-        <v>-0.01261643955217142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01355728188422253</v>
+      </c>
+      <c r="F50">
+        <v>0.007947137095389979</v>
+      </c>
+      <c r="G50">
+        <v>-0.004306619447526409</v>
+      </c>
+      <c r="H50">
+        <v>-0.03680451774816252</v>
+      </c>
+      <c r="I50">
+        <v>-0.04172061120558981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002380654328977549</v>
+        <v>-0.0009691486136357747</v>
       </c>
       <c r="C51">
-        <v>0.005270060759413786</v>
+        <v>-0.01757125514214388</v>
       </c>
       <c r="D51">
-        <v>-0.05609780909026602</v>
+        <v>-0.05638603628662013</v>
       </c>
       <c r="E51">
-        <v>-0.007581418371313034</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03911516901305477</v>
+      </c>
+      <c r="F51">
+        <v>0.04113067428706958</v>
+      </c>
+      <c r="G51">
+        <v>-0.02074894665839421</v>
+      </c>
+      <c r="H51">
+        <v>-0.05451288892117635</v>
+      </c>
+      <c r="I51">
+        <v>-0.01156840400953521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1061296014946326</v>
+        <v>0.0528824403318763</v>
       </c>
       <c r="C53">
-        <v>0.1269174215000786</v>
+        <v>-0.1574943952053003</v>
       </c>
       <c r="D53">
-        <v>-0.005753781284649213</v>
+        <v>0.02480840898786828</v>
       </c>
       <c r="E53">
-        <v>-0.05995527008912381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03058897843680537</v>
+      </c>
+      <c r="F53">
+        <v>0.04841121583197334</v>
+      </c>
+      <c r="G53">
+        <v>0.002745681968299399</v>
+      </c>
+      <c r="H53">
+        <v>-0.009793598782415284</v>
+      </c>
+      <c r="I53">
+        <v>-0.03010135603890299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.009733640562901227</v>
+        <v>0.00922130426315469</v>
       </c>
       <c r="C54">
-        <v>0.02064778140431574</v>
+        <v>-0.03865862632497103</v>
       </c>
       <c r="D54">
-        <v>-0.09295462536207628</v>
+        <v>-0.07864854865376471</v>
       </c>
       <c r="E54">
-        <v>-0.01087144978772459</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01811110993007792</v>
+      </c>
+      <c r="F54">
+        <v>0.002470685869279354</v>
+      </c>
+      <c r="G54">
+        <v>-0.01099906145033138</v>
+      </c>
+      <c r="H54">
+        <v>-0.08158775947941137</v>
+      </c>
+      <c r="I54">
+        <v>0.01998282241977172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09328117210058953</v>
+        <v>0.04028408456207132</v>
       </c>
       <c r="C55">
-        <v>0.1076809323404931</v>
+        <v>-0.1316817110974294</v>
       </c>
       <c r="D55">
-        <v>-0.007630973296998952</v>
+        <v>0.03208877118171621</v>
       </c>
       <c r="E55">
-        <v>-0.009390427733686674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004796076663470726</v>
+      </c>
+      <c r="F55">
+        <v>0.0120638819549087</v>
+      </c>
+      <c r="G55">
+        <v>-0.001010944513932344</v>
+      </c>
+      <c r="H55">
+        <v>-0.01708290625337913</v>
+      </c>
+      <c r="I55">
+        <v>-0.04559984107412456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1313938313252643</v>
+        <v>0.05492726183423639</v>
       </c>
       <c r="C56">
-        <v>0.1458520896051428</v>
+        <v>-0.1902488501128425</v>
       </c>
       <c r="D56">
-        <v>-0.002674188273791588</v>
+        <v>0.03299694243560843</v>
       </c>
       <c r="E56">
-        <v>-0.009622286858232491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03110247673001133</v>
+      </c>
+      <c r="F56">
+        <v>0.01406235689397996</v>
+      </c>
+      <c r="G56">
+        <v>-0.04959872961533414</v>
+      </c>
+      <c r="H56">
+        <v>-0.01333432954142745</v>
+      </c>
+      <c r="I56">
+        <v>-0.06267597248492904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.006361768877501425</v>
+        <v>0.0067917460915374</v>
       </c>
       <c r="C58">
-        <v>0.008959461588674443</v>
+        <v>-0.05606018177163787</v>
       </c>
       <c r="D58">
-        <v>-0.2147544397464426</v>
+        <v>-0.281003867497648</v>
       </c>
       <c r="E58">
-        <v>-0.09068628902960656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02123999642767489</v>
+      </c>
+      <c r="F58">
+        <v>0.1068756584368261</v>
+      </c>
+      <c r="G58">
+        <v>-0.1585276695206092</v>
+      </c>
+      <c r="H58">
+        <v>0.1021897402936099</v>
+      </c>
+      <c r="I58">
+        <v>0.04823425007475677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1838514664967881</v>
+        <v>0.2539224395313444</v>
       </c>
       <c r="C59">
-        <v>-0.144558707770534</v>
+        <v>0.05867149749939395</v>
       </c>
       <c r="D59">
-        <v>-0.045274834976738</v>
+        <v>-0.0567786272571326</v>
       </c>
       <c r="E59">
-        <v>-0.03830222958547076</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01904001195587115</v>
+      </c>
+      <c r="F59">
+        <v>0.02317295748547194</v>
+      </c>
+      <c r="G59">
+        <v>-0.007509934189261836</v>
+      </c>
+      <c r="H59">
+        <v>-0.003365448053405536</v>
+      </c>
+      <c r="I59">
+        <v>-0.06676950487306606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.181839826266573</v>
+        <v>0.1470236475489261</v>
       </c>
       <c r="C60">
-        <v>0.1063946096239741</v>
+        <v>-0.1762923865708855</v>
       </c>
       <c r="D60">
-        <v>-0.2147077202949035</v>
+        <v>-0.08806027243697184</v>
       </c>
       <c r="E60">
-        <v>0.1485258359043179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1647616991518065</v>
+      </c>
+      <c r="F60">
+        <v>-0.2221372042773214</v>
+      </c>
+      <c r="G60">
+        <v>0.2175459700067144</v>
+      </c>
+      <c r="H60">
+        <v>0.2370693701800242</v>
+      </c>
+      <c r="I60">
+        <v>-0.07818627782921957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0253847599972881</v>
+        <v>0.0111167908970274</v>
       </c>
       <c r="C61">
-        <v>0.05345203220632176</v>
+        <v>-0.07531184558450518</v>
       </c>
       <c r="D61">
-        <v>-0.09694424278356054</v>
+        <v>-0.07545686964542023</v>
       </c>
       <c r="E61">
-        <v>0.0005063298729369409</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03794966176311392</v>
+      </c>
+      <c r="F61">
+        <v>-0.01308968156650017</v>
+      </c>
+      <c r="G61">
+        <v>0.03665040036347665</v>
+      </c>
+      <c r="H61">
+        <v>-0.08783595298765183</v>
+      </c>
+      <c r="I61">
+        <v>0.03595314421919912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006435697555162673</v>
+        <v>0.008076667617400529</v>
       </c>
       <c r="C63">
-        <v>0.0239692765517145</v>
+        <v>-0.03693003610450615</v>
       </c>
       <c r="D63">
-        <v>-0.09798831133111428</v>
+        <v>-0.06821639584749892</v>
       </c>
       <c r="E63">
-        <v>-0.02124613554382113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0598896816251269</v>
+      </c>
+      <c r="F63">
+        <v>0.02612442813370908</v>
+      </c>
+      <c r="G63">
+        <v>0.005715928315020186</v>
+      </c>
+      <c r="H63">
+        <v>-0.06990634836169339</v>
+      </c>
+      <c r="I63">
+        <v>0.0315115557440864</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05418310446055974</v>
+        <v>0.01570926619226384</v>
       </c>
       <c r="C64">
-        <v>0.08495240077942083</v>
+        <v>-0.1056106391941911</v>
       </c>
       <c r="D64">
-        <v>-0.03053979823359874</v>
+        <v>-0.01469170503106837</v>
       </c>
       <c r="E64">
-        <v>-0.01456842161000657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02589471903600055</v>
+      </c>
+      <c r="F64">
+        <v>0.01662523184568804</v>
+      </c>
+      <c r="G64">
+        <v>0.05330079585072533</v>
+      </c>
+      <c r="H64">
+        <v>-0.07822070751723689</v>
+      </c>
+      <c r="I64">
+        <v>0.08041577361743638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02482704098846418</v>
+        <v>0.02162445475300367</v>
       </c>
       <c r="C65">
-        <v>0.014805300822259</v>
+        <v>-0.04449206509521854</v>
       </c>
       <c r="D65">
-        <v>-0.1143183120301967</v>
+        <v>-0.1148649419351485</v>
       </c>
       <c r="E65">
-        <v>-0.01304795255860512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04592796664497573</v>
+      </c>
+      <c r="F65">
+        <v>-0.006458918035634823</v>
+      </c>
+      <c r="G65">
+        <v>0.03182958748203363</v>
+      </c>
+      <c r="H65">
+        <v>-0.01415888563358684</v>
+      </c>
+      <c r="I65">
+        <v>0.0531294849858187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02001668612371163</v>
+        <v>0.0006566904592475255</v>
       </c>
       <c r="C66">
-        <v>0.06609862160744878</v>
+        <v>-0.0962298741267635</v>
       </c>
       <c r="D66">
-        <v>-0.1216098670871583</v>
+        <v>-0.1172441967569275</v>
       </c>
       <c r="E66">
-        <v>0.01115501969537239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0429155356447091</v>
+      </c>
+      <c r="F66">
+        <v>-0.01088898213438648</v>
+      </c>
+      <c r="G66">
+        <v>-0.004835909883549933</v>
+      </c>
+      <c r="H66">
+        <v>-0.06758031855481721</v>
+      </c>
+      <c r="I66">
+        <v>0.06760262206962567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02370991675885364</v>
+        <v>0.0217551388621606</v>
       </c>
       <c r="C67">
-        <v>0.02020958146133716</v>
+        <v>-0.03563724721694001</v>
       </c>
       <c r="D67">
-        <v>-0.04816492716357039</v>
+        <v>-0.04180092518592246</v>
       </c>
       <c r="E67">
-        <v>0.01508646068120793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0126546434508103</v>
+      </c>
+      <c r="F67">
+        <v>-0.02761206679575264</v>
+      </c>
+      <c r="G67">
+        <v>3.157981779322251e-05</v>
+      </c>
+      <c r="H67">
+        <v>-0.06901256293964429</v>
+      </c>
+      <c r="I67">
+        <v>0.009019963376606693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.206325924731847</v>
+        <v>0.2749362282201086</v>
       </c>
       <c r="C68">
-        <v>-0.1531504428782142</v>
+        <v>0.06580208503071774</v>
       </c>
       <c r="D68">
-        <v>-0.03126761068784053</v>
+        <v>-0.02714534625442271</v>
       </c>
       <c r="E68">
-        <v>-0.009900448395760387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003093180863517902</v>
+      </c>
+      <c r="F68">
+        <v>0.02525966480723298</v>
+      </c>
+      <c r="G68">
+        <v>-0.07039744487193331</v>
+      </c>
+      <c r="H68">
+        <v>0.04714456193896286</v>
+      </c>
+      <c r="I68">
+        <v>-0.08502324958245158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05334924568036083</v>
+        <v>0.01618129068135482</v>
       </c>
       <c r="C69">
-        <v>0.1167982788902935</v>
+        <v>-0.1186704740120486</v>
       </c>
       <c r="D69">
-        <v>-0.07744137344850439</v>
+        <v>-0.026904733947947</v>
       </c>
       <c r="E69">
-        <v>-0.01916749058566858</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008082967215197918</v>
+      </c>
+      <c r="F69">
+        <v>-0.007916258261639357</v>
+      </c>
+      <c r="G69">
+        <v>0.0275248597193746</v>
+      </c>
+      <c r="H69">
+        <v>-0.04435058677233283</v>
+      </c>
+      <c r="I69">
+        <v>-0.0460165983621495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2173703012807986</v>
+        <v>0.2763743665005736</v>
       </c>
       <c r="C71">
-        <v>-0.1758960770620291</v>
+        <v>0.0778817514239778</v>
       </c>
       <c r="D71">
-        <v>-0.0154210658606566</v>
+        <v>-0.01430011418987959</v>
       </c>
       <c r="E71">
-        <v>-0.01174968303243963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.000884262051276327</v>
+      </c>
+      <c r="F71">
+        <v>0.02030138061692038</v>
+      </c>
+      <c r="G71">
+        <v>-0.03872099064242784</v>
+      </c>
+      <c r="H71">
+        <v>-0.02005760613357188</v>
+      </c>
+      <c r="I71">
+        <v>-0.09947769746100255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09992101429060062</v>
+        <v>0.05319878756970441</v>
       </c>
       <c r="C72">
-        <v>0.07974883520579795</v>
+        <v>-0.1271382214498426</v>
       </c>
       <c r="D72">
-        <v>-0.1096621441933518</v>
+        <v>-0.05753190008125107</v>
       </c>
       <c r="E72">
-        <v>0.03668683845711752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06895399332280261</v>
+      </c>
+      <c r="F72">
+        <v>-0.02503874321523378</v>
+      </c>
+      <c r="G72">
+        <v>0.03719041902060585</v>
+      </c>
+      <c r="H72">
+        <v>-0.04765920476748002</v>
+      </c>
+      <c r="I72">
+        <v>0.06696734273269166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1699789051067598</v>
+        <v>0.1383734378927065</v>
       </c>
       <c r="C73">
-        <v>0.07094399939563552</v>
+        <v>-0.1504891836098922</v>
       </c>
       <c r="D73">
-        <v>-0.2809149982801576</v>
+        <v>-0.09351671481894949</v>
       </c>
       <c r="E73">
-        <v>0.2232224665201779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2859644761388583</v>
+      </c>
+      <c r="F73">
+        <v>-0.3103183669277215</v>
+      </c>
+      <c r="G73">
+        <v>0.3931378363396249</v>
+      </c>
+      <c r="H73">
+        <v>0.1850513109582942</v>
+      </c>
+      <c r="I73">
+        <v>0.006146372103061215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1051881487531125</v>
+        <v>0.04758989538347173</v>
       </c>
       <c r="C74">
-        <v>0.1177999960910269</v>
+        <v>-0.1456988853871322</v>
       </c>
       <c r="D74">
-        <v>0.0190065558852543</v>
+        <v>0.04382067935627605</v>
       </c>
       <c r="E74">
-        <v>-0.03759166049411366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01187812375209642</v>
+      </c>
+      <c r="F74">
+        <v>0.03488751628651354</v>
+      </c>
+      <c r="G74">
+        <v>0.007054725405836789</v>
+      </c>
+      <c r="H74">
+        <v>0.01131493040950513</v>
+      </c>
+      <c r="I74">
+        <v>-0.07697489743571284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2279541866738677</v>
+        <v>0.1029432246184242</v>
       </c>
       <c r="C75">
-        <v>0.2045848884610098</v>
+        <v>-0.2684245385207105</v>
       </c>
       <c r="D75">
-        <v>0.1031181131247969</v>
+        <v>0.1364027274568004</v>
       </c>
       <c r="E75">
-        <v>0.03281074833050032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09126298280614112</v>
+      </c>
+      <c r="F75">
+        <v>-0.02769983554829443</v>
+      </c>
+      <c r="G75">
+        <v>-0.0970240042423627</v>
+      </c>
+      <c r="H75">
+        <v>-0.02650892494069617</v>
+      </c>
+      <c r="I75">
+        <v>-0.05817229200051833</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1380190602645582</v>
+        <v>0.05969877344713823</v>
       </c>
       <c r="C76">
-        <v>0.1411322254822675</v>
+        <v>-0.1827268376933119</v>
       </c>
       <c r="D76">
-        <v>-0.009737091265706254</v>
+        <v>0.0434579765486665</v>
       </c>
       <c r="E76">
-        <v>-0.009945037996015508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02387071635434638</v>
+      </c>
+      <c r="F76">
+        <v>0.002623049221113314</v>
+      </c>
+      <c r="G76">
+        <v>-0.03284271300844668</v>
+      </c>
+      <c r="H76">
+        <v>-0.0386347756971606</v>
+      </c>
+      <c r="I76">
+        <v>-0.05019750171574222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02038861734112184</v>
+        <v>0.0009406125554971763</v>
       </c>
       <c r="C77">
-        <v>0.06692617976370638</v>
+        <v>-0.1074259164840262</v>
       </c>
       <c r="D77">
-        <v>0.02012908632393823</v>
+        <v>-0.3280165509328979</v>
       </c>
       <c r="E77">
-        <v>-0.2268113701058962</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.838813984120569</v>
+      </c>
+      <c r="F77">
+        <v>-0.2192161878765031</v>
+      </c>
+      <c r="G77">
+        <v>0.194456996248612</v>
+      </c>
+      <c r="H77">
+        <v>0.157566434517099</v>
+      </c>
+      <c r="I77">
+        <v>-0.01303847921950901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02634722886962856</v>
+        <v>0.01730152222955135</v>
       </c>
       <c r="C78">
-        <v>0.07057975005062528</v>
+        <v>-0.09238816743739681</v>
       </c>
       <c r="D78">
-        <v>-0.1441781835311116</v>
+        <v>-0.1089660324631389</v>
       </c>
       <c r="E78">
-        <v>-0.04770717438681769</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06831873867318157</v>
+      </c>
+      <c r="F78">
+        <v>0.04282739637735589</v>
+      </c>
+      <c r="G78">
+        <v>-0.03379443074319281</v>
+      </c>
+      <c r="H78">
+        <v>-0.03548901500918204</v>
+      </c>
+      <c r="I78">
+        <v>-0.1069342619271595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09457244156070768</v>
+        <v>0.03391519761492324</v>
       </c>
       <c r="C79">
-        <v>0.1784012367520989</v>
+        <v>-0.1946417855123319</v>
       </c>
       <c r="D79">
-        <v>0.1458453704403529</v>
+        <v>0.07860111149795489</v>
       </c>
       <c r="E79">
-        <v>-0.7981133990791471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05470525470372794</v>
+      </c>
+      <c r="F79">
+        <v>0.7796235619805392</v>
+      </c>
+      <c r="G79">
+        <v>0.3656305873846875</v>
+      </c>
+      <c r="H79">
+        <v>0.3354327246060478</v>
+      </c>
+      <c r="I79">
+        <v>0.1023608833512447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00332103296926802</v>
+        <v>0.003558684745342352</v>
       </c>
       <c r="C80">
-        <v>0.04455636541369448</v>
+        <v>-0.04587326305234534</v>
       </c>
       <c r="D80">
-        <v>-0.05313746061520253</v>
+        <v>-0.04097367122649024</v>
       </c>
       <c r="E80">
-        <v>0.003818711706063279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04470398729229579</v>
+      </c>
+      <c r="F80">
+        <v>0.00529834394773889</v>
+      </c>
+      <c r="G80">
+        <v>-0.008794374111743743</v>
+      </c>
+      <c r="H80">
+        <v>-0.03085749324913663</v>
+      </c>
+      <c r="I80">
+        <v>-0.07601177781451396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.118024484424963</v>
+        <v>0.04150597414052796</v>
       </c>
       <c r="C81">
-        <v>0.1371988391277053</v>
+        <v>-0.1674446190141433</v>
       </c>
       <c r="D81">
-        <v>0.07193010907859156</v>
+        <v>0.07968600453312148</v>
       </c>
       <c r="E81">
-        <v>-0.05303149397630831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05100767725779389</v>
+      </c>
+      <c r="F81">
+        <v>0.06506384346085396</v>
+      </c>
+      <c r="G81">
+        <v>-0.04840841000619474</v>
+      </c>
+      <c r="H81">
+        <v>-0.07910711074213415</v>
+      </c>
+      <c r="I81">
+        <v>-0.08553723702313354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2460311111459768</v>
+        <v>0.08740799656837453</v>
       </c>
       <c r="C82">
-        <v>0.3013169206900577</v>
+        <v>-0.3197384214664308</v>
       </c>
       <c r="D82">
-        <v>0.2037759800774926</v>
+        <v>0.2460717875227688</v>
       </c>
       <c r="E82">
-        <v>0.1565899835987797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06486157816177737</v>
+      </c>
+      <c r="F82">
+        <v>-0.1097090820239373</v>
+      </c>
+      <c r="G82">
+        <v>-0.09209569596632021</v>
+      </c>
+      <c r="H82">
+        <v>-0.1130276751032678</v>
+      </c>
+      <c r="I82">
+        <v>-0.03674601404481361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.008177317100104865</v>
+        <v>-0.01297254017946068</v>
       </c>
       <c r="C83">
-        <v>0.05065738099001168</v>
+        <v>-0.02570988790357481</v>
       </c>
       <c r="D83">
-        <v>-0.001310938078193835</v>
+        <v>-0.03049835923002442</v>
       </c>
       <c r="E83">
-        <v>-0.05960293990557239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07693579068217515</v>
+      </c>
+      <c r="F83">
+        <v>0.071722847728835</v>
+      </c>
+      <c r="G83">
+        <v>-0.02938963676824975</v>
+      </c>
+      <c r="H83">
+        <v>-0.1010541148323093</v>
+      </c>
+      <c r="I83">
+        <v>-0.6852116211918297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001412782133674015</v>
+        <v>-0.00122657525599377</v>
       </c>
       <c r="C84">
-        <v>-0.0001408146203814774</v>
+        <v>-0.01717683136223615</v>
       </c>
       <c r="D84">
-        <v>-0.009478945995266835</v>
+        <v>-0.04131112140380278</v>
       </c>
       <c r="E84">
-        <v>0.001799769312641883</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0008256200161575768</v>
+      </c>
+      <c r="F84">
+        <v>0.03302601725352042</v>
+      </c>
+      <c r="G84">
+        <v>-0.04804958248311873</v>
+      </c>
+      <c r="H84">
+        <v>-0.03238971216880104</v>
+      </c>
+      <c r="I84">
+        <v>0.06268459130902564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1389144842490523</v>
+        <v>0.05504274225203963</v>
       </c>
       <c r="C85">
-        <v>0.1409870040181971</v>
+        <v>-0.1816901304194132</v>
       </c>
       <c r="D85">
-        <v>0.04377692533836339</v>
+        <v>0.09653238949864743</v>
       </c>
       <c r="E85">
-        <v>-0.02237590664427806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001705110723212468</v>
+      </c>
+      <c r="F85">
+        <v>0.07346425019457237</v>
+      </c>
+      <c r="G85">
+        <v>-0.02199680061362013</v>
+      </c>
+      <c r="H85">
+        <v>0.002058379099359245</v>
+      </c>
+      <c r="I85">
+        <v>-0.05817924335166545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01619759558999946</v>
+        <v>0.01299047143242693</v>
       </c>
       <c r="C86">
-        <v>0.01404095293931083</v>
+        <v>-0.03540142702565003</v>
       </c>
       <c r="D86">
-        <v>-0.08406553555065237</v>
+        <v>-0.1042671806264001</v>
       </c>
       <c r="E86">
-        <v>-0.05557576052409467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02013205972373198</v>
+      </c>
+      <c r="F86">
+        <v>-0.003161224288241226</v>
+      </c>
+      <c r="G86">
+        <v>0.01993847805684878</v>
+      </c>
+      <c r="H86">
+        <v>-0.02018690803412736</v>
+      </c>
+      <c r="I86">
+        <v>-0.06331027903156634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02069661062726167</v>
+        <v>0.01308436956004237</v>
       </c>
       <c r="C87">
-        <v>0.02687559924026363</v>
+        <v>-0.0603590816766617</v>
       </c>
       <c r="D87">
-        <v>-0.1308291464047053</v>
+        <v>-0.1394561745714714</v>
       </c>
       <c r="E87">
-        <v>-0.05751010309405472</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.015787938289052</v>
+      </c>
+      <c r="F87">
+        <v>0.04075310934353391</v>
+      </c>
+      <c r="G87">
+        <v>-0.04679143250686479</v>
+      </c>
+      <c r="H87">
+        <v>-0.05449988635402963</v>
+      </c>
+      <c r="I87">
+        <v>-0.005633547945596508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05171301001798839</v>
+        <v>0.03245001577117368</v>
       </c>
       <c r="C88">
-        <v>0.04481541480397742</v>
+        <v>-0.06838075749560096</v>
       </c>
       <c r="D88">
-        <v>-0.02824813572234651</v>
+        <v>-0.01578314786866072</v>
       </c>
       <c r="E88">
-        <v>-0.03242583483433654</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02824793111526847</v>
+      </c>
+      <c r="F88">
+        <v>0.02047437270672187</v>
+      </c>
+      <c r="G88">
+        <v>0.01411192355795192</v>
+      </c>
+      <c r="H88">
+        <v>-0.01351641353793323</v>
+      </c>
+      <c r="I88">
+        <v>-0.002164169380084421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3272929446440913</v>
+        <v>0.4086141848766491</v>
       </c>
       <c r="C89">
-        <v>-0.3200271017158853</v>
+        <v>0.1487526555853982</v>
       </c>
       <c r="D89">
-        <v>-0.007475175219106654</v>
+        <v>-0.02945610910543208</v>
       </c>
       <c r="E89">
-        <v>-0.09981768708092788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05171602228222183</v>
+      </c>
+      <c r="F89">
+        <v>0.06602581408043713</v>
+      </c>
+      <c r="G89">
+        <v>-0.01215200063556975</v>
+      </c>
+      <c r="H89">
+        <v>-0.1196440226807698</v>
+      </c>
+      <c r="I89">
+        <v>0.1553109492575252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2599204770105643</v>
+        <v>0.3218702858812528</v>
       </c>
       <c r="C90">
-        <v>-0.2348093234582266</v>
+        <v>0.1024577642277408</v>
       </c>
       <c r="D90">
-        <v>-0.04061772436452423</v>
+        <v>-0.03573516074807932</v>
       </c>
       <c r="E90">
-        <v>0.009632652731228751</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0118204203458174</v>
+      </c>
+      <c r="F90">
+        <v>-0.006873100227420821</v>
+      </c>
+      <c r="G90">
+        <v>-0.06745259302821861</v>
+      </c>
+      <c r="H90">
+        <v>0.008197489345364382</v>
+      </c>
+      <c r="I90">
+        <v>-0.08388040721042676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.15131305578389</v>
+        <v>0.0643621459235538</v>
       </c>
       <c r="C91">
-        <v>0.1898569624164451</v>
+        <v>-0.2087784865613411</v>
       </c>
       <c r="D91">
-        <v>0.09519167439779043</v>
+        <v>0.1087458441591611</v>
       </c>
       <c r="E91">
-        <v>-0.08180540829342202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05847756258951733</v>
+      </c>
+      <c r="F91">
+        <v>0.06951705527809601</v>
+      </c>
+      <c r="G91">
+        <v>-0.003754276170578781</v>
+      </c>
+      <c r="H91">
+        <v>0.0007251737373912395</v>
+      </c>
+      <c r="I91">
+        <v>-0.08491421558875954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2456507780106825</v>
+        <v>0.3401241947025732</v>
       </c>
       <c r="C92">
-        <v>-0.2571799907483708</v>
+        <v>0.1383376798917606</v>
       </c>
       <c r="D92">
-        <v>0.05778699100206199</v>
+        <v>-0.005010950765032218</v>
       </c>
       <c r="E92">
-        <v>-0.04242794321312646</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06297884387201422</v>
+      </c>
+      <c r="F92">
+        <v>0.03110011919549608</v>
+      </c>
+      <c r="G92">
+        <v>-0.0319279701315936</v>
+      </c>
+      <c r="H92">
+        <v>-0.01558216252072789</v>
+      </c>
+      <c r="I92">
+        <v>0.2389742054345248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2861424272937374</v>
+        <v>0.3363290518551765</v>
       </c>
       <c r="C93">
-        <v>-0.2454878698704816</v>
+        <v>0.1102853332603928</v>
       </c>
       <c r="D93">
-        <v>-0.01322304729722084</v>
+        <v>0.01873176278247412</v>
       </c>
       <c r="E93">
-        <v>-0.0002127328888740382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02568695519773984</v>
+      </c>
+      <c r="F93">
+        <v>0.007066669405384186</v>
+      </c>
+      <c r="G93">
+        <v>0.01585238159582255</v>
+      </c>
+      <c r="H93">
+        <v>0.006389908449383073</v>
+      </c>
+      <c r="I93">
+        <v>-0.02443472828298012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2852181775914884</v>
+        <v>0.1210538837497056</v>
       </c>
       <c r="C94">
-        <v>0.2784742895057557</v>
+        <v>-0.3467618028497177</v>
       </c>
       <c r="D94">
-        <v>0.3302278831588991</v>
+        <v>0.3589996973802359</v>
       </c>
       <c r="E94">
-        <v>0.2318747536226025</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06326297135524227</v>
+      </c>
+      <c r="F94">
+        <v>-0.1083705456592228</v>
+      </c>
+      <c r="G94">
+        <v>-0.3285188881534117</v>
+      </c>
+      <c r="H94">
+        <v>0.03220844905091704</v>
+      </c>
+      <c r="I94">
+        <v>0.2468181020140418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01251744173255551</v>
+        <v>0.01744938170712104</v>
       </c>
       <c r="C95">
-        <v>0.03844728524629962</v>
+        <v>-0.06451899012023675</v>
       </c>
       <c r="D95">
-        <v>0.00291671706850175</v>
+        <v>-0.0997210583668731</v>
       </c>
       <c r="E95">
-        <v>-0.09035203325904867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1606245192857874</v>
+      </c>
+      <c r="F95">
+        <v>-0.01449124154213484</v>
+      </c>
+      <c r="G95">
+        <v>0.09027105818274161</v>
+      </c>
+      <c r="H95">
+        <v>-0.3327371192402288</v>
+      </c>
+      <c r="I95">
+        <v>0.3656135579969488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001230188510547178</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007073372440941836</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004686218335580872</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003765836671096956</v>
+      </c>
+      <c r="F97">
+        <v>0.0003604235467369924</v>
+      </c>
+      <c r="G97">
+        <v>-0.0006085862203782692</v>
+      </c>
+      <c r="H97">
+        <v>-0.003985771737518461</v>
+      </c>
+      <c r="I97">
+        <v>0.003438125341916776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1433918142083958</v>
+        <v>0.1138941839810879</v>
       </c>
       <c r="C98">
-        <v>0.09232771201479881</v>
+        <v>-0.1562715708451798</v>
       </c>
       <c r="D98">
-        <v>-0.1637309752888956</v>
+        <v>-0.06215533003340226</v>
       </c>
       <c r="E98">
-        <v>0.1860887859717535</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1994367145602539</v>
+      </c>
+      <c r="F98">
+        <v>-0.2466912420117588</v>
+      </c>
+      <c r="G98">
+        <v>0.2755723193737161</v>
+      </c>
+      <c r="H98">
+        <v>0.1927398480615349</v>
+      </c>
+      <c r="I98">
+        <v>-0.01278458072919793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001383001491822097</v>
+        <v>0.001096900018326726</v>
       </c>
       <c r="C101">
-        <v>0.01943065385513419</v>
+        <v>-0.03594060737239698</v>
       </c>
       <c r="D101">
-        <v>-0.09446049379508026</v>
+        <v>-0.1016960053059899</v>
       </c>
       <c r="E101">
-        <v>-0.02418491823115809</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05855402078758801</v>
+      </c>
+      <c r="F101">
+        <v>0.04064847147051555</v>
+      </c>
+      <c r="G101">
+        <v>0.01153029041393207</v>
+      </c>
+      <c r="H101">
+        <v>-0.1373525024658618</v>
+      </c>
+      <c r="I101">
+        <v>0.01247272571262396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1026704033133409</v>
+        <v>0.02693142442990049</v>
       </c>
       <c r="C102">
-        <v>0.1607091343630572</v>
+        <v>-0.148130166370113</v>
       </c>
       <c r="D102">
-        <v>0.06227044767131631</v>
+        <v>0.09929131331008931</v>
       </c>
       <c r="E102">
-        <v>0.05507203018186856</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03880484498379189</v>
+      </c>
+      <c r="F102">
+        <v>-0.0639454746161764</v>
+      </c>
+      <c r="G102">
+        <v>0.007110395658374154</v>
+      </c>
+      <c r="H102">
+        <v>-0.04704103169095498</v>
+      </c>
+      <c r="I102">
+        <v>-0.02522968801046529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
